--- a/biology/Botanique/Boswellia/Boswellia.xlsx
+++ b/biology/Botanique/Boswellia/Boswellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Boswellia regroupe une vingtaine d'espèces d'arbres ou d'arbustes de la famille des Burséracées originaires d'Afrique ou d'Asie, produisant une résine aromatique. La résine de plusieurs espèces est exploitée sous le nom d'encens ou oliban.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles caduques des Boswellia sont alternes, composées et imparipennées. Les petites fleurs blanches, vertes, jaunes ou roses sont réunies en racèmes ou en panicules et comportent cinq pétales et un calice à cinq dents.
 </t>
@@ -542,7 +556,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boswellia ameero Balf.f.
 Boswellia bullata Thulin &amp; Gifri
